--- a/GBDS OCTOBER FILES 2025/SCRR CALCULATOR - OCTOBER.xlsx
+++ b/GBDS OCTOBER FILES 2025/SCRR CALCULATOR - OCTOBER.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS OCTOBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B6B0FB-0E5A-4122-A223-1D6113E68E03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C97DD3-28DE-4D9E-AE9D-299D3A1C6F5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="(October 2025)" sheetId="814" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3149" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3152" uniqueCount="155">
   <si>
     <t>GUILLERMO BEVERAGE DISTRIBUTION SERVICES</t>
   </si>
@@ -634,6 +634,15 @@
   </si>
   <si>
     <t>INDAY STORE</t>
+  </si>
+  <si>
+    <t>BDO</t>
+  </si>
+  <si>
+    <t>42855</t>
+  </si>
+  <si>
+    <t>ELIZABETH HEN.</t>
   </si>
 </sst>
 </file>
@@ -1516,7 +1525,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="243">
+  <cellXfs count="244">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2132,6 +2141,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -5406,7 +5418,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50CFEA36-19CF-4639-87E8-04011E3FC450}">
   <dimension ref="A1:R59"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="I4" sqref="I4:J5"/>
     </sheetView>
   </sheetViews>
@@ -7123,7 +7135,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07517CE3-141D-4678-B9ED-ECFE3AC36475}">
   <dimension ref="A1:R59"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="I4" sqref="I4:J5"/>
     </sheetView>
   </sheetViews>
@@ -7245,10 +7257,12 @@
       <c r="B6" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="10"/>
+      <c r="C6" s="10">
+        <v>582</v>
+      </c>
       <c r="D6" s="13">
         <f t="shared" ref="D6:D28" si="1">C6*L6</f>
-        <v>0</v>
+        <v>428934</v>
       </c>
       <c r="F6" s="118" t="s">
         <v>16</v>
@@ -7281,10 +7295,12 @@
       <c r="B7" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="10"/>
+      <c r="C7" s="10">
+        <v>1</v>
+      </c>
       <c r="D7" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>725</v>
       </c>
       <c r="F7" s="119"/>
       <c r="G7" s="123"/>
@@ -7305,10 +7321,12 @@
       <c r="B8" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="10"/>
+      <c r="C8" s="10">
+        <v>25</v>
+      </c>
       <c r="D8" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>25825</v>
       </c>
       <c r="F8" s="126" t="s">
         <v>21</v>
@@ -7333,10 +7351,12 @@
       <c r="B9" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="10"/>
+      <c r="C9" s="10">
+        <v>4</v>
+      </c>
       <c r="D9" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2828</v>
       </c>
       <c r="F9" s="119"/>
       <c r="G9" s="131"/>
@@ -7417,10 +7437,12 @@
       <c r="B12" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="10"/>
+      <c r="C12" s="10">
+        <v>2</v>
+      </c>
       <c r="D12" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1904</v>
       </c>
       <c r="F12" s="137" t="s">
         <v>33</v>
@@ -7451,10 +7473,12 @@
       <c r="B13" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="10"/>
+      <c r="C13" s="10">
+        <v>23</v>
+      </c>
       <c r="D13" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7061</v>
       </c>
       <c r="F13" s="140" t="s">
         <v>36</v>
@@ -7462,7 +7486,7 @@
       <c r="G13" s="141"/>
       <c r="H13" s="142">
         <f>D29</f>
-        <v>0</v>
+        <v>467530</v>
       </c>
       <c r="I13" s="143"/>
       <c r="J13" s="144"/>
@@ -7485,10 +7509,12 @@
       <c r="B14" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="10"/>
+      <c r="C14" s="10">
+        <v>23</v>
+      </c>
       <c r="D14" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>253</v>
       </c>
       <c r="F14" s="145" t="s">
         <v>39</v>
@@ -7496,7 +7522,7 @@
       <c r="G14" s="146"/>
       <c r="H14" s="147">
         <f>D54</f>
-        <v>0</v>
+        <v>57573</v>
       </c>
       <c r="I14" s="148"/>
       <c r="J14" s="149"/>
@@ -7534,7 +7560,7 @@
       <c r="G15" s="141"/>
       <c r="H15" s="151">
         <f>H13-H14</f>
-        <v>0</v>
+        <v>409957</v>
       </c>
       <c r="I15" s="152"/>
       <c r="J15" s="153"/>
@@ -7572,7 +7598,9 @@
       <c r="G16" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="H16" s="154"/>
+      <c r="H16" s="154">
+        <v>5067</v>
+      </c>
       <c r="I16" s="154"/>
       <c r="J16" s="154"/>
       <c r="L16" s="6">
@@ -7992,7 +8020,7 @@
       <c r="C29" s="157"/>
       <c r="D29" s="161">
         <f>SUM(D6:D28)</f>
-        <v>0</v>
+        <v>467530</v>
       </c>
       <c r="F29" s="163" t="s">
         <v>55</v>
@@ -8000,7 +8028,7 @@
       <c r="G29" s="164"/>
       <c r="H29" s="167">
         <f>H15-H16-H17-H18-H19-H20-H22-H23-H24+H26+H27</f>
-        <v>0</v>
+        <v>404890</v>
       </c>
       <c r="I29" s="168"/>
       <c r="J29" s="169"/>
@@ -8131,10 +8159,12 @@
       <c r="F34" s="12">
         <v>1000</v>
       </c>
-      <c r="G34" s="75"/>
+      <c r="G34" s="75">
+        <v>248</v>
+      </c>
       <c r="H34" s="195">
         <f>F34*G34</f>
-        <v>0</v>
+        <v>248000</v>
       </c>
       <c r="I34" s="196"/>
       <c r="J34" s="197"/>
@@ -8157,18 +8187,22 @@
       <c r="B35" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="C35" s="52"/>
+      <c r="C35" s="52">
+        <v>1</v>
+      </c>
       <c r="D35" s="30">
         <f>C35*84</f>
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="F35" s="59">
         <v>500</v>
       </c>
-      <c r="G35" s="41"/>
+      <c r="G35" s="41">
+        <v>313</v>
+      </c>
       <c r="H35" s="195">
         <f t="shared" ref="H35:H39" si="2">F35*G35</f>
-        <v>0</v>
+        <v>156500</v>
       </c>
       <c r="I35" s="196"/>
       <c r="J35" s="197"/>
@@ -8225,18 +8259,22 @@
       <c r="B37" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="C37" s="53"/>
+      <c r="C37" s="53">
+        <v>463</v>
+      </c>
       <c r="D37" s="12">
         <f>C37*111</f>
-        <v>0</v>
+        <v>51393</v>
       </c>
       <c r="F37" s="12">
         <v>100</v>
       </c>
-      <c r="G37" s="39"/>
+      <c r="G37" s="39">
+        <v>4</v>
+      </c>
       <c r="H37" s="195">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="I37" s="196"/>
       <c r="J37" s="197"/>
@@ -8259,10 +8297,12 @@
       <c r="B38" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="C38" s="54"/>
+      <c r="C38" s="54">
+        <v>17</v>
+      </c>
       <c r="D38" s="12">
         <f>C38*84</f>
-        <v>0</v>
+        <v>1428</v>
       </c>
       <c r="F38" s="30">
         <v>50</v>
@@ -8301,10 +8341,12 @@
       <c r="F39" s="12">
         <v>20</v>
       </c>
-      <c r="G39" s="37"/>
+      <c r="G39" s="37">
+        <v>4</v>
+      </c>
       <c r="H39" s="195">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="I39" s="196"/>
       <c r="J39" s="197"/>
@@ -8327,10 +8369,12 @@
       <c r="B40" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C40" s="64"/>
+      <c r="C40" s="64">
+        <v>3</v>
+      </c>
       <c r="D40" s="12">
         <f>C40*111</f>
-        <v>0</v>
+        <v>333</v>
       </c>
       <c r="F40" s="12">
         <v>10</v>
@@ -8398,7 +8442,9 @@
       <c r="F42" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="G42" s="195"/>
+      <c r="G42" s="195">
+        <v>158</v>
+      </c>
       <c r="H42" s="196"/>
       <c r="I42" s="196"/>
       <c r="J42" s="197"/>
@@ -8444,10 +8490,12 @@
       <c r="B44" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C44" s="10"/>
+      <c r="C44" s="10">
+        <v>26</v>
+      </c>
       <c r="D44" s="12">
         <f>C44*120</f>
-        <v>0</v>
+        <v>3120</v>
       </c>
       <c r="F44" s="37"/>
       <c r="G44" s="63"/>
@@ -8484,10 +8532,12 @@
       <c r="B46" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="82"/>
+      <c r="C46" s="82">
+        <v>24</v>
+      </c>
       <c r="D46" s="12">
         <f>C46*1.5</f>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F46" s="37"/>
       <c r="G46" s="94"/>
@@ -8521,10 +8571,12 @@
       <c r="B48" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C48" s="10"/>
+      <c r="C48" s="10">
+        <v>4</v>
+      </c>
       <c r="D48" s="12">
         <f>C48*78</f>
-        <v>0</v>
+        <v>312</v>
       </c>
       <c r="F48" s="60"/>
       <c r="G48" s="60"/>
@@ -8549,17 +8601,19 @@
       <c r="B49" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="C49" s="33"/>
+      <c r="C49" s="33">
+        <v>20</v>
+      </c>
       <c r="D49" s="12">
         <f>C49*42</f>
-        <v>0</v>
+        <v>840</v>
       </c>
       <c r="F49" s="220" t="s">
         <v>86</v>
       </c>
       <c r="G49" s="167">
         <f>H34+H35+H36+H37+H38+H39+H40+H41+G42+H44+H45+H46</f>
-        <v>0</v>
+        <v>405138</v>
       </c>
       <c r="H49" s="168"/>
       <c r="I49" s="168"/>
@@ -8583,10 +8637,12 @@
       <c r="B50" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="C50" s="11"/>
+      <c r="C50" s="11">
+        <v>18</v>
+      </c>
       <c r="D50" s="12">
         <f>C50*1.5</f>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="F50" s="221"/>
       <c r="G50" s="170"/>
@@ -8607,7 +8663,7 @@
       </c>
       <c r="G51" s="224">
         <f>G49-H29</f>
-        <v>0</v>
+        <v>248</v>
       </c>
       <c r="H51" s="225"/>
       <c r="I51" s="225"/>
@@ -8678,7 +8734,7 @@
       <c r="C54" s="209"/>
       <c r="D54" s="212">
         <f>SUM(D34:D53)</f>
-        <v>0</v>
+        <v>57573</v>
       </c>
       <c r="F54" s="21"/>
       <c r="J54" s="34"/>
@@ -8817,7 +8873,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC51BE12-FBF6-407F-B292-E0B2E346EDE0}">
   <dimension ref="A1:R59"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="I4" sqref="I4:J5"/>
     </sheetView>
   </sheetViews>
@@ -8939,10 +8995,12 @@
       <c r="B6" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="10"/>
+      <c r="C6" s="10">
+        <v>513</v>
+      </c>
       <c r="D6" s="13">
         <f t="shared" ref="D6:D28" si="1">C6*L6</f>
-        <v>0</v>
+        <v>378081</v>
       </c>
       <c r="F6" s="118" t="s">
         <v>16</v>
@@ -8975,10 +9033,12 @@
       <c r="B7" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="10"/>
+      <c r="C7" s="10">
+        <v>7</v>
+      </c>
       <c r="D7" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5075</v>
       </c>
       <c r="F7" s="119"/>
       <c r="G7" s="123"/>
@@ -9027,10 +9087,12 @@
       <c r="B9" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="10"/>
+      <c r="C9" s="10">
+        <v>154</v>
+      </c>
       <c r="D9" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>108878</v>
       </c>
       <c r="F9" s="119"/>
       <c r="G9" s="131"/>
@@ -9111,10 +9173,12 @@
       <c r="B12" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="10"/>
+      <c r="C12" s="10">
+        <v>5</v>
+      </c>
       <c r="D12" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4760</v>
       </c>
       <c r="F12" s="137" t="s">
         <v>33</v>
@@ -9145,10 +9209,12 @@
       <c r="B13" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="10"/>
+      <c r="C13" s="10">
+        <v>18</v>
+      </c>
       <c r="D13" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5526</v>
       </c>
       <c r="F13" s="140" t="s">
         <v>36</v>
@@ -9156,7 +9222,7 @@
       <c r="G13" s="141"/>
       <c r="H13" s="142">
         <f>D29</f>
-        <v>0</v>
+        <v>508754</v>
       </c>
       <c r="I13" s="143"/>
       <c r="J13" s="144"/>
@@ -9179,10 +9245,12 @@
       <c r="B14" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="10"/>
+      <c r="C14" s="10">
+        <v>14</v>
+      </c>
       <c r="D14" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="F14" s="145" t="s">
         <v>39</v>
@@ -9190,7 +9258,7 @@
       <c r="G14" s="146"/>
       <c r="H14" s="147">
         <f>D54</f>
-        <v>0</v>
+        <v>78027</v>
       </c>
       <c r="I14" s="148"/>
       <c r="J14" s="149"/>
@@ -9228,7 +9296,7 @@
       <c r="G15" s="141"/>
       <c r="H15" s="151">
         <f>H13-H14</f>
-        <v>0</v>
+        <v>430727</v>
       </c>
       <c r="I15" s="152"/>
       <c r="J15" s="153"/>
@@ -9266,7 +9334,10 @@
       <c r="G16" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="H16" s="154"/>
+      <c r="H16" s="154">
+        <f>1302+960+498</f>
+        <v>2760</v>
+      </c>
       <c r="I16" s="154"/>
       <c r="J16" s="154"/>
       <c r="L16" s="6">
@@ -9369,9 +9440,11 @@
       <c r="G19" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="H19" s="173"/>
-      <c r="I19" s="173"/>
-      <c r="J19" s="173"/>
+      <c r="H19" s="243">
+        <v>50</v>
+      </c>
+      <c r="I19" s="243"/>
+      <c r="J19" s="243"/>
       <c r="L19" s="6">
         <f>R35</f>
         <v>1102</v>
@@ -9460,9 +9533,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F22" s="78"/>
-      <c r="G22" s="74"/>
-      <c r="H22" s="177"/>
+      <c r="F22" s="78" t="s">
+        <v>154</v>
+      </c>
+      <c r="G22" s="74">
+        <v>6082</v>
+      </c>
+      <c r="H22" s="177">
+        <v>170543</v>
+      </c>
       <c r="I22" s="177"/>
       <c r="J22" s="177"/>
       <c r="L22" s="7">
@@ -9649,10 +9728,12 @@
       <c r="B28" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="C28" s="10"/>
+      <c r="C28" s="10">
+        <v>8</v>
+      </c>
       <c r="D28" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6280</v>
       </c>
       <c r="F28" s="96"/>
       <c r="G28" s="62"/>
@@ -9684,7 +9765,7 @@
       <c r="C29" s="157"/>
       <c r="D29" s="161">
         <f>SUM(D6:D28)</f>
-        <v>0</v>
+        <v>508754</v>
       </c>
       <c r="F29" s="163" t="s">
         <v>55</v>
@@ -9692,7 +9773,7 @@
       <c r="G29" s="164"/>
       <c r="H29" s="167">
         <f>H15-H16-H17-H18-H19-H20-H22-H23-H24+H26+H27</f>
-        <v>0</v>
+        <v>257374</v>
       </c>
       <c r="I29" s="168"/>
       <c r="J29" s="169"/>
@@ -9815,18 +9896,22 @@
       <c r="B34" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="51"/>
+      <c r="C34" s="51">
+        <v>1</v>
+      </c>
       <c r="D34" s="30">
         <f>C34*120</f>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F34" s="12">
         <v>1000</v>
       </c>
-      <c r="G34" s="75"/>
+      <c r="G34" s="75">
+        <v>93</v>
+      </c>
       <c r="H34" s="195">
         <f>F34*G34</f>
-        <v>0</v>
+        <v>93000</v>
       </c>
       <c r="I34" s="196"/>
       <c r="J34" s="197"/>
@@ -9857,10 +9942,12 @@
       <c r="F35" s="59">
         <v>500</v>
       </c>
-      <c r="G35" s="41"/>
+      <c r="G35" s="41">
+        <v>83</v>
+      </c>
       <c r="H35" s="195">
         <f>F35*G35</f>
-        <v>0</v>
+        <v>41500</v>
       </c>
       <c r="I35" s="196"/>
       <c r="J35" s="197"/>
@@ -9889,10 +9976,12 @@
       <c r="F36" s="12">
         <v>200</v>
       </c>
-      <c r="G36" s="37"/>
+      <c r="G36" s="37">
+        <v>8</v>
+      </c>
       <c r="H36" s="195">
         <f t="shared" ref="H36:H39" si="2">F36*G36</f>
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="I36" s="196"/>
       <c r="J36" s="197"/>
@@ -9917,18 +10006,22 @@
       <c r="B37" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="C37" s="53"/>
+      <c r="C37" s="53">
+        <v>686</v>
+      </c>
       <c r="D37" s="12">
         <f>C37*111</f>
-        <v>0</v>
+        <v>76146</v>
       </c>
       <c r="F37" s="12">
         <v>100</v>
       </c>
-      <c r="G37" s="39"/>
+      <c r="G37" s="39">
+        <v>92</v>
+      </c>
       <c r="H37" s="195">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>9200</v>
       </c>
       <c r="I37" s="196"/>
       <c r="J37" s="197"/>
@@ -9951,18 +10044,22 @@
       <c r="B38" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="C38" s="54"/>
+      <c r="C38" s="54">
+        <v>1</v>
+      </c>
       <c r="D38" s="12">
         <f>C38*84</f>
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="F38" s="30">
         <v>50</v>
       </c>
-      <c r="G38" s="39"/>
+      <c r="G38" s="39">
+        <v>60</v>
+      </c>
       <c r="H38" s="195">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="I38" s="196"/>
       <c r="J38" s="197"/>
@@ -9985,18 +10082,22 @@
       <c r="B39" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="C39" s="52"/>
+      <c r="C39" s="52">
+        <v>4</v>
+      </c>
       <c r="D39" s="31">
         <f>C39*4.5</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F39" s="12">
         <v>20</v>
       </c>
-      <c r="G39" s="37"/>
+      <c r="G39" s="37">
+        <v>1</v>
+      </c>
       <c r="H39" s="195">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I39" s="196"/>
       <c r="J39" s="197"/>
@@ -10019,10 +10120,12 @@
       <c r="B40" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C40" s="64"/>
+      <c r="C40" s="64">
+        <v>7</v>
+      </c>
       <c r="D40" s="12">
         <f>C40*111</f>
-        <v>0</v>
+        <v>777</v>
       </c>
       <c r="F40" s="12">
         <v>10</v>
@@ -10082,15 +10185,19 @@
       <c r="B42" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="C42" s="11"/>
+      <c r="C42" s="11">
+        <v>4</v>
+      </c>
       <c r="D42" s="12">
         <f>C42*2.25</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F42" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="G42" s="195"/>
+      <c r="G42" s="195">
+        <v>133</v>
+      </c>
       <c r="H42" s="196"/>
       <c r="I42" s="196"/>
       <c r="J42" s="197"/>
@@ -10136,14 +10243,22 @@
       <c r="B44" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C44" s="10"/>
+      <c r="C44" s="10">
+        <v>1</v>
+      </c>
       <c r="D44" s="12">
         <f>C44*120</f>
-        <v>0</v>
-      </c>
-      <c r="F44" s="37"/>
-      <c r="G44" s="77"/>
-      <c r="H44" s="179"/>
+        <v>120</v>
+      </c>
+      <c r="F44" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="G44" s="77" t="s">
+        <v>153</v>
+      </c>
+      <c r="H44" s="179">
+        <v>108751</v>
+      </c>
       <c r="I44" s="179"/>
       <c r="J44" s="179"/>
       <c r="K44" s="21"/>
@@ -10213,10 +10328,12 @@
       <c r="B48" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C48" s="10"/>
+      <c r="C48" s="10">
+        <v>9</v>
+      </c>
       <c r="D48" s="12">
         <f>C48*78</f>
-        <v>0</v>
+        <v>702</v>
       </c>
       <c r="F48" s="60"/>
       <c r="G48" s="60"/>
@@ -10241,17 +10358,19 @@
       <c r="B49" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="C49" s="33"/>
+      <c r="C49" s="33">
+        <v>1</v>
+      </c>
       <c r="D49" s="12">
         <f>C49*42</f>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="F49" s="220" t="s">
         <v>86</v>
       </c>
       <c r="G49" s="167">
         <f>H34+H35+H36+H37+H38+H39+H40+H41+G42+H44+H45+H46</f>
-        <v>0</v>
+        <v>257204</v>
       </c>
       <c r="H49" s="168"/>
       <c r="I49" s="168"/>
@@ -10275,10 +10394,12 @@
       <c r="B50" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="C50" s="11"/>
+      <c r="C50" s="11">
+        <v>6</v>
+      </c>
       <c r="D50" s="12">
         <f>C50*1.5</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F50" s="221"/>
       <c r="G50" s="170"/>
@@ -10295,15 +10416,15 @@
       <c r="C51" s="10"/>
       <c r="D51" s="31"/>
       <c r="F51" s="222" t="s">
-        <v>141</v>
-      </c>
-      <c r="G51" s="224">
+        <v>149</v>
+      </c>
+      <c r="G51" s="235">
         <f>G49-H29</f>
-        <v>0</v>
-      </c>
-      <c r="H51" s="225"/>
-      <c r="I51" s="225"/>
-      <c r="J51" s="226"/>
+        <v>-170</v>
+      </c>
+      <c r="H51" s="236"/>
+      <c r="I51" s="236"/>
+      <c r="J51" s="237"/>
       <c r="K51" s="21"/>
       <c r="O51" t="s">
         <v>87</v>
@@ -10325,10 +10446,10 @@
       <c r="C52" s="33"/>
       <c r="D52" s="45"/>
       <c r="F52" s="223"/>
-      <c r="G52" s="227"/>
-      <c r="H52" s="228"/>
-      <c r="I52" s="228"/>
-      <c r="J52" s="229"/>
+      <c r="G52" s="238"/>
+      <c r="H52" s="239"/>
+      <c r="I52" s="239"/>
+      <c r="J52" s="240"/>
       <c r="K52" s="21"/>
       <c r="O52" t="s">
         <v>88</v>
@@ -10370,7 +10491,7 @@
       <c r="C54" s="209"/>
       <c r="D54" s="212">
         <f>SUM(D34:D53)</f>
-        <v>0</v>
+        <v>78027</v>
       </c>
       <c r="F54" s="21"/>
       <c r="J54" s="34"/>
@@ -39044,8 +39165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FFB5C17-3D3B-4B14-9963-8F9960295E18}">
   <dimension ref="A1:R59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:J5"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42544,7 +42665,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CFE9736-C20A-4175-A499-4FC2711896A8}">
   <dimension ref="A1:R59"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="I4" sqref="I4:J5"/>
     </sheetView>
   </sheetViews>
@@ -42929,7 +43050,7 @@
       <c r="G14" s="146"/>
       <c r="H14" s="147">
         <f>D54</f>
-        <v>36600</v>
+        <v>30606</v>
       </c>
       <c r="I14" s="148"/>
       <c r="J14" s="149"/>
@@ -42967,7 +43088,7 @@
       <c r="G15" s="141"/>
       <c r="H15" s="151">
         <f>H13-H14</f>
-        <v>292585</v>
+        <v>298579</v>
       </c>
       <c r="I15" s="152"/>
       <c r="J15" s="153"/>
@@ -43445,7 +43566,7 @@
       <c r="G29" s="164"/>
       <c r="H29" s="167">
         <f>H15-H16-H17-H18-H19-H20-H22-H23-H24+H26+H27</f>
-        <v>133803</v>
+        <v>139797</v>
       </c>
       <c r="I29" s="168"/>
       <c r="J29" s="169"/>
@@ -43675,11 +43796,11 @@
         <v>66</v>
       </c>
       <c r="C37" s="53">
-        <v>304</v>
+        <v>250</v>
       </c>
       <c r="D37" s="12">
         <f>C37*111</f>
-        <v>33744</v>
+        <v>27750</v>
       </c>
       <c r="F37" s="12">
         <v>100</v>
@@ -44074,15 +44195,15 @@
       <c r="C51" s="10"/>
       <c r="D51" s="31"/>
       <c r="F51" s="222" t="s">
-        <v>141</v>
-      </c>
-      <c r="G51" s="224">
+        <v>149</v>
+      </c>
+      <c r="G51" s="235">
         <f>G49-H29</f>
-        <v>5085</v>
-      </c>
-      <c r="H51" s="225"/>
-      <c r="I51" s="225"/>
-      <c r="J51" s="226"/>
+        <v>-909</v>
+      </c>
+      <c r="H51" s="236"/>
+      <c r="I51" s="236"/>
+      <c r="J51" s="237"/>
       <c r="K51" s="21"/>
       <c r="O51" t="s">
         <v>87</v>
@@ -44104,10 +44225,10 @@
       <c r="C52" s="33"/>
       <c r="D52" s="45"/>
       <c r="F52" s="223"/>
-      <c r="G52" s="227"/>
-      <c r="H52" s="228"/>
-      <c r="I52" s="228"/>
-      <c r="J52" s="229"/>
+      <c r="G52" s="238"/>
+      <c r="H52" s="239"/>
+      <c r="I52" s="239"/>
+      <c r="J52" s="240"/>
       <c r="K52" s="21"/>
       <c r="O52" t="s">
         <v>88</v>
@@ -44149,7 +44270,7 @@
       <c r="C54" s="209"/>
       <c r="D54" s="212">
         <f>SUM(D34:D53)</f>
-        <v>36600</v>
+        <v>30606</v>
       </c>
       <c r="F54" s="21"/>
       <c r="J54" s="34"/>

--- a/GBDS OCTOBER FILES 2025/SCRR CALCULATOR - OCTOBER.xlsx
+++ b/GBDS OCTOBER FILES 2025/SCRR CALCULATOR - OCTOBER.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS OCTOBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EDC18EF-A382-4978-AB50-6B6C66504FDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE3FD9A-9FF4-445D-8245-0FDEA7748CFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="21" activeTab="28" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="21" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="(October 2025)" sheetId="814" r:id="rId1"/>
@@ -121,7 +121,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5787" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5788" uniqueCount="164">
   <si>
     <t>GUILLERMO BEVERAGE DISTRIBUTION SERVICES</t>
   </si>
@@ -736,6 +736,9 @@
   </si>
   <si>
     <t>BANK TRANSFER</t>
+  </si>
+  <si>
+    <t>JAYVEE TAATA</t>
   </si>
 </sst>
 </file>
@@ -39144,7 +39147,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CCFE59C-ACDE-4234-85A8-5854B704C679}">
   <dimension ref="A1:R59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="I4" sqref="I4:J5"/>
     </sheetView>
   </sheetViews>
@@ -44238,7 +44241,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47D629C1-3D9C-42CF-AEE8-776FE31759F8}">
   <dimension ref="A1:R59"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="I4" sqref="I4:J5"/>
     </sheetView>
   </sheetViews>
@@ -44360,10 +44363,12 @@
       <c r="B6" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="10"/>
+      <c r="C6" s="10">
+        <v>191</v>
+      </c>
       <c r="D6" s="13">
         <f t="shared" ref="D6:D28" si="1">C6*L6</f>
-        <v>0</v>
+        <v>140767</v>
       </c>
       <c r="F6" s="127" t="s">
         <v>16</v>
@@ -44396,10 +44401,12 @@
       <c r="B7" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="10"/>
+      <c r="C7" s="10">
+        <v>1</v>
+      </c>
       <c r="D7" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>725</v>
       </c>
       <c r="F7" s="128"/>
       <c r="G7" s="132"/>
@@ -44448,10 +44455,12 @@
       <c r="B9" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="10"/>
+      <c r="C9" s="10">
+        <v>9</v>
+      </c>
       <c r="D9" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6363</v>
       </c>
       <c r="F9" s="128"/>
       <c r="G9" s="140"/>
@@ -44532,10 +44541,12 @@
       <c r="B12" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="10"/>
+      <c r="C12" s="10">
+        <v>1</v>
+      </c>
       <c r="D12" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>952</v>
       </c>
       <c r="F12" s="146" t="s">
         <v>33</v>
@@ -44566,10 +44577,12 @@
       <c r="B13" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="10"/>
+      <c r="C13" s="10">
+        <v>4</v>
+      </c>
       <c r="D13" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1228</v>
       </c>
       <c r="F13" s="149" t="s">
         <v>36</v>
@@ -44577,7 +44590,7 @@
       <c r="G13" s="150"/>
       <c r="H13" s="151">
         <f>D29</f>
-        <v>0</v>
+        <v>150930</v>
       </c>
       <c r="I13" s="152"/>
       <c r="J13" s="153"/>
@@ -44600,10 +44613,12 @@
       <c r="B14" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="10"/>
+      <c r="C14" s="10">
+        <v>10</v>
+      </c>
       <c r="D14" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="F14" s="154" t="s">
         <v>39</v>
@@ -44611,7 +44626,7 @@
       <c r="G14" s="155"/>
       <c r="H14" s="156">
         <f>D54</f>
-        <v>0</v>
+        <v>23319</v>
       </c>
       <c r="I14" s="157"/>
       <c r="J14" s="158"/>
@@ -44649,7 +44664,7 @@
       <c r="G15" s="150"/>
       <c r="H15" s="160">
         <f>H13-H14</f>
-        <v>0</v>
+        <v>127611</v>
       </c>
       <c r="I15" s="161"/>
       <c r="J15" s="162"/>
@@ -44687,7 +44702,10 @@
       <c r="G16" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="H16" s="163"/>
+      <c r="H16" s="163">
+        <f>1160</f>
+        <v>1160</v>
+      </c>
       <c r="I16" s="163"/>
       <c r="J16" s="163"/>
       <c r="L16" s="6">
@@ -45070,10 +45088,12 @@
       <c r="B28" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="C28" s="10"/>
+      <c r="C28" s="10">
+        <v>1</v>
+      </c>
       <c r="D28" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>785</v>
       </c>
       <c r="F28" s="104"/>
       <c r="G28" s="62"/>
@@ -45105,7 +45125,7 @@
       <c r="C29" s="166"/>
       <c r="D29" s="170">
         <f>SUM(D6:D28)</f>
-        <v>0</v>
+        <v>150930</v>
       </c>
       <c r="F29" s="172" t="s">
         <v>55</v>
@@ -45113,7 +45133,7 @@
       <c r="G29" s="173"/>
       <c r="H29" s="176">
         <f>H15-H16-H17-H18-H19-H20-H22-H23-H24+H26+H27+H28</f>
-        <v>0</v>
+        <v>126451</v>
       </c>
       <c r="I29" s="177"/>
       <c r="J29" s="178"/>
@@ -45244,10 +45264,12 @@
       <c r="F34" s="12">
         <v>1000</v>
       </c>
-      <c r="G34" s="40"/>
+      <c r="G34" s="40">
+        <v>68</v>
+      </c>
       <c r="H34" s="204">
         <f t="shared" ref="H34:H39" si="2">F34*G34</f>
-        <v>0</v>
+        <v>68000</v>
       </c>
       <c r="I34" s="205"/>
       <c r="J34" s="206"/>
@@ -45278,10 +45300,12 @@
       <c r="F35" s="59">
         <v>500</v>
       </c>
-      <c r="G35" s="41"/>
+      <c r="G35" s="41">
+        <v>77</v>
+      </c>
       <c r="H35" s="204">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>38500</v>
       </c>
       <c r="I35" s="205"/>
       <c r="J35" s="206"/>
@@ -45310,10 +45334,12 @@
       <c r="F36" s="12">
         <v>200</v>
       </c>
-      <c r="G36" s="37"/>
+      <c r="G36" s="37">
+        <v>3</v>
+      </c>
       <c r="H36" s="204">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="I36" s="205"/>
       <c r="J36" s="206"/>
@@ -45338,18 +45364,22 @@
       <c r="B37" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="C37" s="53"/>
+      <c r="C37" s="53">
+        <v>202</v>
+      </c>
       <c r="D37" s="12">
         <f>C37*111</f>
-        <v>0</v>
+        <v>22422</v>
       </c>
       <c r="F37" s="12">
         <v>100</v>
       </c>
-      <c r="G37" s="39"/>
+      <c r="G37" s="39">
+        <v>186</v>
+      </c>
       <c r="H37" s="204">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>18600</v>
       </c>
       <c r="I37" s="205"/>
       <c r="J37" s="206"/>
@@ -45372,18 +45402,22 @@
       <c r="B38" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="C38" s="54"/>
+      <c r="C38" s="54">
+        <v>3</v>
+      </c>
       <c r="D38" s="12">
         <f>C38*84</f>
-        <v>0</v>
+        <v>252</v>
       </c>
       <c r="F38" s="30">
         <v>50</v>
       </c>
-      <c r="G38" s="39"/>
+      <c r="G38" s="39">
+        <v>15</v>
+      </c>
       <c r="H38" s="204">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="I38" s="205"/>
       <c r="J38" s="206"/>
@@ -45406,10 +45440,12 @@
       <c r="B39" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="C39" s="52"/>
+      <c r="C39" s="52">
+        <v>5</v>
+      </c>
       <c r="D39" s="31">
         <f>C39*4.5</f>
-        <v>0</v>
+        <v>22.5</v>
       </c>
       <c r="F39" s="12">
         <v>20</v>
@@ -45440,10 +45476,12 @@
       <c r="B40" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C40" s="64"/>
+      <c r="C40" s="64">
+        <v>2</v>
+      </c>
       <c r="D40" s="12">
         <f>C40*111</f>
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="F40" s="12">
         <v>10</v>
@@ -45511,7 +45549,9 @@
       <c r="F42" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="G42" s="204"/>
+      <c r="G42" s="204">
+        <v>80</v>
+      </c>
       <c r="H42" s="205"/>
       <c r="I42" s="205"/>
       <c r="J42" s="206"/>
@@ -45562,10 +45602,12 @@
       <c r="B44" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C44" s="10"/>
+      <c r="C44" s="10">
+        <v>1</v>
+      </c>
       <c r="D44" s="12">
         <f>C44*120</f>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F44" s="37"/>
       <c r="G44" s="63"/>
@@ -45613,10 +45655,12 @@
       <c r="B46" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="82"/>
+      <c r="C46" s="82">
+        <v>9</v>
+      </c>
       <c r="D46" s="12">
         <f>C46*1.5</f>
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="F46" s="37"/>
       <c r="G46" s="63"/>
@@ -45650,10 +45694,12 @@
       <c r="B48" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C48" s="10"/>
+      <c r="C48" s="10">
+        <v>2</v>
+      </c>
       <c r="D48" s="12">
         <f>C48*78</f>
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="F48" s="60"/>
       <c r="G48" s="60"/>
@@ -45678,17 +45724,19 @@
       <c r="B49" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="C49" s="33"/>
+      <c r="C49" s="33">
+        <v>2</v>
+      </c>
       <c r="D49" s="12">
         <f>C49*42</f>
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="F49" s="229" t="s">
         <v>86</v>
       </c>
       <c r="G49" s="176">
         <f>H34+H35+H36+H37+H38+H39+H40+H41+G42+H44+H45+H46</f>
-        <v>0</v>
+        <v>126530</v>
       </c>
       <c r="H49" s="177"/>
       <c r="I49" s="177"/>
@@ -45712,10 +45760,12 @@
       <c r="B50" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="C50" s="11"/>
+      <c r="C50" s="11">
+        <v>18</v>
+      </c>
       <c r="D50" s="12">
         <f>C50*1.5</f>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="F50" s="230"/>
       <c r="G50" s="179"/>
@@ -45736,7 +45786,7 @@
       </c>
       <c r="G51" s="233">
         <f>G49-H29</f>
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="H51" s="234"/>
       <c r="I51" s="234"/>
@@ -45807,7 +45857,7 @@
       <c r="C54" s="218"/>
       <c r="D54" s="221">
         <f>SUM(D34:D53)</f>
-        <v>0</v>
+        <v>23319</v>
       </c>
       <c r="F54" s="21"/>
       <c r="J54" s="34"/>
@@ -46077,10 +46127,12 @@
       <c r="B6" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="10"/>
+      <c r="C6" s="10">
+        <v>325</v>
+      </c>
       <c r="D6" s="13">
         <f t="shared" ref="D6:D28" si="1">C6*L6</f>
-        <v>0</v>
+        <v>239525</v>
       </c>
       <c r="F6" s="127" t="s">
         <v>16</v>
@@ -46113,10 +46165,12 @@
       <c r="B7" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="10"/>
+      <c r="C7" s="10">
+        <v>5</v>
+      </c>
       <c r="D7" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3625</v>
       </c>
       <c r="F7" s="128"/>
       <c r="G7" s="132"/>
@@ -46165,10 +46219,12 @@
       <c r="B9" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="10"/>
+      <c r="C9" s="10">
+        <v>50</v>
+      </c>
       <c r="D9" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>35350</v>
       </c>
       <c r="F9" s="128"/>
       <c r="G9" s="140"/>
@@ -46249,10 +46305,12 @@
       <c r="B12" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="10"/>
+      <c r="C12" s="10">
+        <v>6</v>
+      </c>
       <c r="D12" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5712</v>
       </c>
       <c r="F12" s="146" t="s">
         <v>33</v>
@@ -46283,10 +46341,12 @@
       <c r="B13" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="10"/>
+      <c r="C13" s="10">
+        <v>15</v>
+      </c>
       <c r="D13" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4605</v>
       </c>
       <c r="F13" s="149" t="s">
         <v>36</v>
@@ -46294,7 +46354,7 @@
       <c r="G13" s="150"/>
       <c r="H13" s="151">
         <f>D29</f>
-        <v>0</v>
+        <v>288861</v>
       </c>
       <c r="I13" s="152"/>
       <c r="J13" s="153"/>
@@ -46317,10 +46377,12 @@
       <c r="B14" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="10"/>
+      <c r="C14" s="10">
+        <v>4</v>
+      </c>
       <c r="D14" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="F14" s="154" t="s">
         <v>39</v>
@@ -46328,7 +46390,7 @@
       <c r="G14" s="155"/>
       <c r="H14" s="156">
         <f>D54</f>
-        <v>0</v>
+        <v>35074.5</v>
       </c>
       <c r="I14" s="157"/>
       <c r="J14" s="158"/>
@@ -46366,7 +46428,7 @@
       <c r="G15" s="150"/>
       <c r="H15" s="160">
         <f>H13-H14</f>
-        <v>0</v>
+        <v>253786.5</v>
       </c>
       <c r="I15" s="161"/>
       <c r="J15" s="162"/>
@@ -46404,7 +46466,10 @@
       <c r="G16" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="H16" s="163"/>
+      <c r="H16" s="163">
+        <f>3591</f>
+        <v>3591</v>
+      </c>
       <c r="I16" s="163"/>
       <c r="J16" s="163"/>
       <c r="L16" s="6">
@@ -46731,9 +46796,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F26" s="65"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="192"/>
+      <c r="F26" s="65" t="s">
+        <v>163</v>
+      </c>
+      <c r="G26" s="10">
+        <v>4479</v>
+      </c>
+      <c r="H26" s="192">
+        <v>4710</v>
+      </c>
       <c r="I26" s="193"/>
       <c r="J26" s="194"/>
       <c r="L26" s="7">
@@ -46824,7 +46895,7 @@
       <c r="C29" s="166"/>
       <c r="D29" s="170">
         <f>SUM(D6:D28)</f>
-        <v>0</v>
+        <v>288861</v>
       </c>
       <c r="F29" s="172" t="s">
         <v>55</v>
@@ -46832,7 +46903,7 @@
       <c r="G29" s="173"/>
       <c r="H29" s="176">
         <f>H15-H16-H17-H18-H19-H20-H22-H23-H24+H26+H27</f>
-        <v>0</v>
+        <v>254905.5</v>
       </c>
       <c r="I29" s="177"/>
       <c r="J29" s="178"/>
@@ -46963,10 +47034,12 @@
       <c r="F34" s="12">
         <v>1000</v>
       </c>
-      <c r="G34" s="75"/>
+      <c r="G34" s="75">
+        <v>205</v>
+      </c>
       <c r="H34" s="204">
         <f>F34*G34</f>
-        <v>0</v>
+        <v>205000</v>
       </c>
       <c r="I34" s="205"/>
       <c r="J34" s="206"/>
@@ -46997,10 +47070,12 @@
       <c r="F35" s="59">
         <v>500</v>
       </c>
-      <c r="G35" s="41"/>
+      <c r="G35" s="41">
+        <v>97</v>
+      </c>
       <c r="H35" s="204">
         <f t="shared" ref="H35:H39" si="2">F35*G35</f>
-        <v>0</v>
+        <v>48500</v>
       </c>
       <c r="I35" s="205"/>
       <c r="J35" s="206"/>
@@ -47057,10 +47132,12 @@
       <c r="B37" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="C37" s="53"/>
+      <c r="C37" s="53">
+        <v>309</v>
+      </c>
       <c r="D37" s="12">
         <f>C37*111</f>
-        <v>0</v>
+        <v>34299</v>
       </c>
       <c r="F37" s="12">
         <v>100</v>
@@ -47091,10 +47168,12 @@
       <c r="B38" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="C38" s="54"/>
+      <c r="C38" s="54">
+        <v>3</v>
+      </c>
       <c r="D38" s="12">
         <f>C38*84</f>
-        <v>0</v>
+        <v>252</v>
       </c>
       <c r="F38" s="30">
         <v>50</v>
@@ -47133,10 +47212,12 @@
       <c r="F39" s="12">
         <v>20</v>
       </c>
-      <c r="G39" s="37"/>
+      <c r="G39" s="37">
+        <v>1</v>
+      </c>
       <c r="H39" s="204">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I39" s="205"/>
       <c r="J39" s="206"/>
@@ -47159,10 +47240,12 @@
       <c r="B40" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C40" s="64"/>
+      <c r="C40" s="64">
+        <v>1</v>
+      </c>
       <c r="D40" s="12">
         <f>C40*111</f>
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="F40" s="12">
         <v>10</v>
@@ -47230,7 +47313,9 @@
       <c r="F42" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="G42" s="204"/>
+      <c r="G42" s="204">
+        <v>15</v>
+      </c>
       <c r="H42" s="205"/>
       <c r="I42" s="205"/>
       <c r="J42" s="206"/>
@@ -47276,10 +47361,12 @@
       <c r="B44" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C44" s="10"/>
+      <c r="C44" s="10">
+        <v>1</v>
+      </c>
       <c r="D44" s="12">
         <f>C44*120</f>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F44" s="37"/>
       <c r="G44" s="63"/>
@@ -47353,10 +47440,12 @@
       <c r="B48" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C48" s="10"/>
+      <c r="C48" s="10">
+        <v>1</v>
+      </c>
       <c r="D48" s="12">
         <f>C48*78</f>
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="F48" s="60"/>
       <c r="G48" s="60"/>
@@ -47381,17 +47470,19 @@
       <c r="B49" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="C49" s="33"/>
+      <c r="C49" s="33">
+        <v>5</v>
+      </c>
       <c r="D49" s="12">
         <f>C49*42</f>
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="F49" s="229" t="s">
         <v>86</v>
       </c>
       <c r="G49" s="176">
         <f>H34+H35+H36+H37+H38+H39+H40+H41+G42+H44+H45+H46</f>
-        <v>0</v>
+        <v>253535</v>
       </c>
       <c r="H49" s="177"/>
       <c r="I49" s="177"/>
@@ -47415,10 +47506,12 @@
       <c r="B50" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="C50" s="11"/>
+      <c r="C50" s="11">
+        <v>3</v>
+      </c>
       <c r="D50" s="12">
         <f>C50*1.5</f>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="F50" s="230"/>
       <c r="G50" s="179"/>
@@ -47435,15 +47528,15 @@
       <c r="C51" s="10"/>
       <c r="D51" s="31"/>
       <c r="F51" s="231" t="s">
-        <v>140</v>
-      </c>
-      <c r="G51" s="233">
+        <v>160</v>
+      </c>
+      <c r="G51" s="244">
         <f>G49-H29</f>
-        <v>0</v>
-      </c>
-      <c r="H51" s="234"/>
-      <c r="I51" s="234"/>
-      <c r="J51" s="235"/>
+        <v>-1370.5</v>
+      </c>
+      <c r="H51" s="245"/>
+      <c r="I51" s="245"/>
+      <c r="J51" s="246"/>
       <c r="K51" s="21"/>
       <c r="O51" t="s">
         <v>87</v>
@@ -47465,10 +47558,10 @@
       <c r="C52" s="33"/>
       <c r="D52" s="45"/>
       <c r="F52" s="232"/>
-      <c r="G52" s="236"/>
-      <c r="H52" s="237"/>
-      <c r="I52" s="237"/>
-      <c r="J52" s="238"/>
+      <c r="G52" s="247"/>
+      <c r="H52" s="248"/>
+      <c r="I52" s="248"/>
+      <c r="J52" s="249"/>
       <c r="K52" s="21"/>
       <c r="O52" t="s">
         <v>88</v>
@@ -47510,7 +47603,7 @@
       <c r="C54" s="218"/>
       <c r="D54" s="221">
         <f>SUM(D34:D53)</f>
-        <v>0</v>
+        <v>35074.5</v>
       </c>
       <c r="F54" s="21"/>
       <c r="J54" s="34"/>
@@ -47649,7 +47742,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06F9DB6B-891E-4B8D-9BEF-00DB42A491CE}">
   <dimension ref="A1:R59"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="I4" sqref="I4:J5"/>
     </sheetView>
   </sheetViews>
@@ -47771,10 +47864,12 @@
       <c r="B6" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="10"/>
+      <c r="C6" s="10">
+        <v>195</v>
+      </c>
       <c r="D6" s="13">
         <f t="shared" ref="D6:D28" si="1">C6*L6</f>
-        <v>0</v>
+        <v>143715</v>
       </c>
       <c r="F6" s="127" t="s">
         <v>16</v>
@@ -47807,10 +47902,12 @@
       <c r="B7" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="10"/>
+      <c r="C7" s="10">
+        <v>13</v>
+      </c>
       <c r="D7" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9425</v>
       </c>
       <c r="F7" s="128"/>
       <c r="G7" s="132"/>
@@ -47859,10 +47956,12 @@
       <c r="B9" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="10"/>
+      <c r="C9" s="10">
+        <v>35</v>
+      </c>
       <c r="D9" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>24745</v>
       </c>
       <c r="F9" s="128"/>
       <c r="G9" s="140"/>
@@ -47943,10 +48042,12 @@
       <c r="B12" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="10"/>
+      <c r="C12" s="10">
+        <v>2</v>
+      </c>
       <c r="D12" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1904</v>
       </c>
       <c r="F12" s="146" t="s">
         <v>33</v>
@@ -47977,10 +48078,12 @@
       <c r="B13" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="10"/>
+      <c r="C13" s="10">
+        <v>10</v>
+      </c>
       <c r="D13" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3070</v>
       </c>
       <c r="F13" s="149" t="s">
         <v>36</v>
@@ -47988,7 +48091,7 @@
       <c r="G13" s="150"/>
       <c r="H13" s="151">
         <f>D29</f>
-        <v>0</v>
+        <v>193945</v>
       </c>
       <c r="I13" s="152"/>
       <c r="J13" s="153"/>
@@ -48011,10 +48114,12 @@
       <c r="B14" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="10"/>
+      <c r="C14" s="10">
+        <v>6</v>
+      </c>
       <c r="D14" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="F14" s="154" t="s">
         <v>39</v>
@@ -48022,7 +48127,7 @@
       <c r="G14" s="155"/>
       <c r="H14" s="156">
         <f>D54</f>
-        <v>0</v>
+        <v>33312.75</v>
       </c>
       <c r="I14" s="157"/>
       <c r="J14" s="158"/>
@@ -48060,7 +48165,7 @@
       <c r="G15" s="150"/>
       <c r="H15" s="160">
         <f>H13-H14</f>
-        <v>0</v>
+        <v>160632.25</v>
       </c>
       <c r="I15" s="161"/>
       <c r="J15" s="162"/>
@@ -48098,7 +48203,10 @@
       <c r="G16" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="H16" s="163"/>
+      <c r="H16" s="163">
+        <f>372</f>
+        <v>372</v>
+      </c>
       <c r="I16" s="163"/>
       <c r="J16" s="163"/>
       <c r="L16" s="6">
@@ -48219,10 +48327,12 @@
       <c r="B20" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="C20" s="10"/>
+      <c r="C20" s="10">
+        <v>10</v>
+      </c>
       <c r="D20" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>11020</v>
       </c>
       <c r="F20" s="58"/>
       <c r="G20" s="71" t="s">
@@ -48516,7 +48626,7 @@
       <c r="C29" s="166"/>
       <c r="D29" s="170">
         <f>SUM(D6:D28)</f>
-        <v>0</v>
+        <v>193945</v>
       </c>
       <c r="F29" s="172" t="s">
         <v>55</v>
@@ -48524,7 +48634,7 @@
       <c r="G29" s="173"/>
       <c r="H29" s="176">
         <f>H15-H16-H17-H18-H19-H20-H22-H23-H24+H26+H27</f>
-        <v>0</v>
+        <v>160260.25</v>
       </c>
       <c r="I29" s="177"/>
       <c r="J29" s="178"/>
@@ -48647,18 +48757,22 @@
       <c r="B34" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="51"/>
+      <c r="C34" s="51">
+        <v>1</v>
+      </c>
       <c r="D34" s="30">
         <f>C34*120</f>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F34" s="12">
         <v>1000</v>
       </c>
-      <c r="G34" s="75"/>
+      <c r="G34" s="75">
+        <v>134</v>
+      </c>
       <c r="H34" s="204">
         <f>F34*G34</f>
-        <v>0</v>
+        <v>134000</v>
       </c>
       <c r="I34" s="205"/>
       <c r="J34" s="206"/>
@@ -48689,10 +48803,12 @@
       <c r="F35" s="59">
         <v>500</v>
       </c>
-      <c r="G35" s="41"/>
+      <c r="G35" s="41">
+        <v>42</v>
+      </c>
       <c r="H35" s="204">
         <f>F35*G35</f>
-        <v>0</v>
+        <v>21000</v>
       </c>
       <c r="I35" s="205"/>
       <c r="J35" s="206"/>
@@ -48713,18 +48829,22 @@
       <c r="B36" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="10"/>
+      <c r="C36" s="10">
+        <v>11</v>
+      </c>
       <c r="D36" s="12">
         <f>C36*1.5</f>
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="F36" s="12">
         <v>200</v>
       </c>
-      <c r="G36" s="37"/>
+      <c r="G36" s="37">
+        <v>5</v>
+      </c>
       <c r="H36" s="204">
         <f t="shared" ref="H36:H39" si="2">F36*G36</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="I36" s="205"/>
       <c r="J36" s="206"/>
@@ -48749,18 +48869,22 @@
       <c r="B37" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="C37" s="53"/>
+      <c r="C37" s="53">
+        <v>269</v>
+      </c>
       <c r="D37" s="12">
         <f>C37*111</f>
-        <v>0</v>
+        <v>29859</v>
       </c>
       <c r="F37" s="12">
         <v>100</v>
       </c>
-      <c r="G37" s="39"/>
+      <c r="G37" s="39">
+        <v>36</v>
+      </c>
       <c r="H37" s="204">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="I37" s="205"/>
       <c r="J37" s="206"/>
@@ -48783,18 +48907,22 @@
       <c r="B38" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="C38" s="54"/>
+      <c r="C38" s="54">
+        <v>1</v>
+      </c>
       <c r="D38" s="12">
         <f>C38*84</f>
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="F38" s="30">
         <v>50</v>
       </c>
-      <c r="G38" s="39"/>
+      <c r="G38" s="39">
+        <v>5</v>
+      </c>
       <c r="H38" s="204">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="I38" s="205"/>
       <c r="J38" s="206"/>
@@ -48817,18 +48945,22 @@
       <c r="B39" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="C39" s="52"/>
+      <c r="C39" s="52">
+        <v>5</v>
+      </c>
       <c r="D39" s="31">
         <f>C39*4.5</f>
-        <v>0</v>
+        <v>22.5</v>
       </c>
       <c r="F39" s="12">
         <v>20</v>
       </c>
-      <c r="G39" s="37"/>
+      <c r="G39" s="37">
+        <v>1</v>
+      </c>
       <c r="H39" s="204">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I39" s="205"/>
       <c r="J39" s="206"/>
@@ -48851,10 +48983,12 @@
       <c r="B40" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C40" s="64"/>
+      <c r="C40" s="64">
+        <v>14</v>
+      </c>
       <c r="D40" s="12">
         <f>C40*111</f>
-        <v>0</v>
+        <v>1554</v>
       </c>
       <c r="F40" s="12">
         <v>10</v>
@@ -48914,15 +49048,19 @@
       <c r="B42" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="C42" s="11"/>
+      <c r="C42" s="11">
+        <v>27</v>
+      </c>
       <c r="D42" s="12">
         <f>C42*2.25</f>
-        <v>0</v>
+        <v>60.75</v>
       </c>
       <c r="F42" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="G42" s="204"/>
+      <c r="G42" s="204">
+        <v>135</v>
+      </c>
       <c r="H42" s="205"/>
       <c r="I42" s="205"/>
       <c r="J42" s="206"/>
@@ -48968,10 +49106,12 @@
       <c r="B44" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C44" s="10"/>
+      <c r="C44" s="10">
+        <v>2</v>
+      </c>
       <c r="D44" s="12">
         <f>C44*120</f>
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="F44" s="37"/>
       <c r="G44" s="77"/>
@@ -48988,10 +49128,12 @@
       <c r="B45" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="C45" s="33"/>
+      <c r="C45" s="33">
+        <v>4</v>
+      </c>
       <c r="D45" s="12">
         <f>C45*84</f>
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="F45" s="37"/>
       <c r="G45" s="77"/>
@@ -49008,10 +49150,12 @@
       <c r="B46" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="82"/>
+      <c r="C46" s="82">
+        <v>5</v>
+      </c>
       <c r="D46" s="12">
         <f>C46*1.5</f>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="F46" s="37"/>
       <c r="G46" s="63"/>
@@ -49045,10 +49189,12 @@
       <c r="B48" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C48" s="10"/>
+      <c r="C48" s="10">
+        <v>4</v>
+      </c>
       <c r="D48" s="12">
         <f>C48*78</f>
-        <v>0</v>
+        <v>312</v>
       </c>
       <c r="F48" s="60"/>
       <c r="G48" s="60"/>
@@ -49073,17 +49219,19 @@
       <c r="B49" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="C49" s="33"/>
+      <c r="C49" s="33">
+        <v>16</v>
+      </c>
       <c r="D49" s="12">
         <f>C49*42</f>
-        <v>0</v>
+        <v>672</v>
       </c>
       <c r="F49" s="229" t="s">
         <v>86</v>
       </c>
       <c r="G49" s="176">
         <f>H34+H35+H36+H37+H38+H39+H40+H41+G42+H44+H45+H46</f>
-        <v>0</v>
+        <v>160005</v>
       </c>
       <c r="H49" s="177"/>
       <c r="I49" s="177"/>
@@ -49107,10 +49255,12 @@
       <c r="B50" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="C50" s="11"/>
+      <c r="C50" s="11">
+        <v>19</v>
+      </c>
       <c r="D50" s="12">
         <f>C50*1.5</f>
-        <v>0</v>
+        <v>28.5</v>
       </c>
       <c r="F50" s="230"/>
       <c r="G50" s="179"/>
@@ -49127,15 +49277,15 @@
       <c r="C51" s="10"/>
       <c r="D51" s="31"/>
       <c r="F51" s="231" t="s">
-        <v>141</v>
-      </c>
-      <c r="G51" s="233">
+        <v>149</v>
+      </c>
+      <c r="G51" s="244">
         <f>G49-H29</f>
-        <v>0</v>
-      </c>
-      <c r="H51" s="234"/>
-      <c r="I51" s="234"/>
-      <c r="J51" s="235"/>
+        <v>-255.25</v>
+      </c>
+      <c r="H51" s="245"/>
+      <c r="I51" s="245"/>
+      <c r="J51" s="246"/>
       <c r="K51" s="21"/>
       <c r="O51" t="s">
         <v>87</v>
@@ -49157,10 +49307,10 @@
       <c r="C52" s="33"/>
       <c r="D52" s="45"/>
       <c r="F52" s="232"/>
-      <c r="G52" s="236"/>
-      <c r="H52" s="237"/>
-      <c r="I52" s="237"/>
-      <c r="J52" s="238"/>
+      <c r="G52" s="247"/>
+      <c r="H52" s="248"/>
+      <c r="I52" s="248"/>
+      <c r="J52" s="249"/>
       <c r="K52" s="21"/>
       <c r="O52" t="s">
         <v>88</v>
@@ -49202,7 +49352,7 @@
       <c r="C54" s="218"/>
       <c r="D54" s="221">
         <f>SUM(D34:D53)</f>
-        <v>0</v>
+        <v>33312.75</v>
       </c>
       <c r="F54" s="21"/>
       <c r="J54" s="34"/>
